--- a/files/stock.xlsx
+++ b/files/stock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hobiniainamiradoramahatsangiarison/Applications/store/back/catalog-service/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0C575B-2F42-7141-B15F-B5C8808CDF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BEF563-0EBE-2A41-A098-F8579D2FDEB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B70FFFEC-098E-6341-BEC1-6E33CBFE8E6C}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B70FFFEC-098E-6341-BEC1-6E33CBFE8E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>[ITEM_CODE] code article</t>
   </si>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167B2E9-4E72-034B-91CB-7571349BC61E}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,6 +512,17 @@
         <v>10004</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
